--- a/统计航段信息.xlsx
+++ b/统计航段信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03Code\go\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03Code\go\UseExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AFCCB8-5BCF-423F-B320-8B8224403384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE388811-ACDE-4F2C-A547-7CA8694315EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="204" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
